--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652F5F3C-C3ED-43BE-BB6E-455B1B5AA3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC85E2EA-83A3-489E-A3D4-7947617B52DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
   <sheets>
     <sheet name="19-2-2022" sheetId="1" r:id="rId1"/>
     <sheet name="20-1-2022" sheetId="2" r:id="rId2"/>
+    <sheet name="21-1-2022" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>date</t>
   </si>
@@ -144,6 +145,12 @@
   </si>
   <si>
     <t>exploring github and there one project like this I inspect that and also do window print function use but it has side nevigation so am try to under stand how it become possible that side navigation is not printing and watch its code</t>
+  </si>
+  <si>
+    <t>9.20to10.20</t>
+  </si>
+  <si>
+    <t>started 3 in one project in that make asingle filee called index .html and in that copy code from previous file and set it there and there fetching data js file are still same I just like with index and I complete that parth in like 30 to 40 minites my like was taken beacuse there is class in news section with was repeated and my style was crack so i fix it down</t>
   </si>
 </sst>
 </file>
@@ -639,7 +646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812EA7E0-287A-49B5-9434-CAA2FE822358}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -743,4 +750,38 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC7D8B7-F388-456B-B2F2-747927B224C4}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="113.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC85E2EA-83A3-489E-A3D4-7947617B52DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42899AA-F878-4CB3-88B0-B1821B93A9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>date</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>started 3 in one project in that make asingle filee called index .html and in that copy code from previous file and set it there and there fetching data js file are still same I just like with index and I complete that parth in like 30 to 40 minites my like was taken beacuse there is class in news section with was repeated and my style was crack so i fix it down</t>
+  </si>
+  <si>
+    <t>10.20to11.30</t>
+  </si>
+  <si>
+    <t>so take a inspriation from that I have started making a side navigation bar  so first a listed the the funcrtion I can give and then I listed fuction I has given like adding experince etc. and that function a added in navigation so page of resume look clean  and i inspect that project and I get a idea that in print media query i can set class with display non and that can't change ui that just igonre in print so i hav made one class no print i have added every where which i want to hide</t>
   </si>
 </sst>
 </file>
@@ -754,10 +760,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC7D8B7-F388-456B-B2F2-747927B224C4}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -781,6 +787,14 @@
         <v>38</v>
       </c>
     </row>
+    <row r="5" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42899AA-F878-4CB3-88B0-B1821B93A9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5217A25C-937F-46DB-9F29-874615AA76A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>date</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>so take a inspriation from that I have started making a side navigation bar  so first a listed the the funcrtion I can give and then I listed fuction I has given like adding experince etc. and that function a added in navigation so page of resume look clean  and i inspect that project and I get a idea that in print media query i can set class with display non and that can't change ui that just igonre in print so i hav made one class no print i have added every where which i want to hide</t>
+  </si>
+  <si>
+    <t>11.30to12.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so my navigation is compelete on there is fuction so started giving functionality in that give hide show function image and then give function of add contact item and then add classes no print where is is requried and now setting up page so page can't ovweflow so finding its pexel in google </t>
   </si>
 </sst>
 </file>
@@ -760,10 +766,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC7D8B7-F388-456B-B2F2-747927B224C4}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -795,6 +801,14 @@
         <v>40</v>
       </c>
     </row>
+    <row r="7" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5217A25C-937F-46DB-9F29-874615AA76A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8B8040-8853-4C4C-B0AD-6A23241BEFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>date</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t xml:space="preserve">so my navigation is compelete on there is fuction so started giving functionality in that give hide show function image and then give function of add contact item and then add classes no print where is is requried and now setting up page so page can't ovweflow so finding its pexel in google </t>
+  </si>
+  <si>
+    <t>12.45to2.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so refectoring the and get some new idea so remove all input field and add editable content and now look good and google how to set placeholder to element and its working so refectoring the code and make is very clear </t>
   </si>
 </sst>
 </file>
@@ -766,10 +772,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC7D8B7-F388-456B-B2F2-747927B224C4}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -809,6 +815,22 @@
         <v>42</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8B8040-8853-4C4C-B0AD-6A23241BEFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E46FBC0-63DC-4E0A-B360-44725682CF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>date</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t xml:space="preserve">so refectoring the and get some new idea so remove all input field and add editable content and now look good and google how to set placeholder to element and its working so refectoring the code and make is very clear </t>
+  </si>
+  <si>
+    <t>add functionality of add prroject eduction remove old function and use edible div and complete one templete and in that in this one hour give functionality  like new font style and margin  functionality and many more</t>
   </si>
 </sst>
 </file>
@@ -772,10 +775,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC7D8B7-F388-456B-B2F2-747927B224C4}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -831,6 +834,14 @@
         <v>44</v>
       </c>
     </row>
+    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E46FBC0-63DC-4E0A-B360-44725682CF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F731BBA5-8967-4EA8-BDE5-E78268F99907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>date</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>add functionality of add prroject eduction remove old function and use edible div and complete one templete and in that in this one hour give functionality  like new font style and margin  functionality and many more</t>
+  </si>
+  <si>
+    <t>started a second templete In that copy the navigation from a first and past into second give some classes to pages to ast print its get hide and then set height width of page  and then set page info height and then start giving functionality like toggle img and then some fucntion like add item of contact</t>
   </si>
 </sst>
 </file>
@@ -775,10 +778,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC7D8B7-F388-456B-B2F2-747927B224C4}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -842,6 +845,14 @@
         <v>45</v>
       </c>
     </row>
+    <row r="15" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F731BBA5-8967-4EA8-BDE5-E78268F99907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D068FB-4EA8-4DF5-A4ED-05D7C54529FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>date</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>started a second templete In that copy the navigation from a first and past into second give some classes to pages to ast print its get hide and then set height width of page  and then set page info height and then start giving functionality like toggle img and then some fucntion like add item of contact</t>
+  </si>
+  <si>
+    <t>on second templete set css which was split and replace text area with editable div and and give them class to so  they can have earlier css too and just near to complete this templete just remain 2 function of adding</t>
   </si>
 </sst>
 </file>
@@ -778,10 +781,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC7D8B7-F388-456B-B2F2-747927B224C4}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -853,6 +856,14 @@
         <v>46</v>
       </c>
     </row>
+    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D068FB-4EA8-4DF5-A4ED-05D7C54529FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318B5485-1AD9-45B1-8073-0A1413CEB25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
   <sheets>
     <sheet name="19-2-2022" sheetId="1" r:id="rId1"/>
     <sheet name="20-1-2022" sheetId="2" r:id="rId2"/>
     <sheet name="21-1-2022" sheetId="3" r:id="rId3"/>
+    <sheet name="22-1-2022" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>date</t>
   </si>
@@ -178,6 +179,9 @@
   </si>
   <si>
     <t>on second templete set css which was split and replace text area with editable div and and give them class to so  they can have earlier css too and just near to complete this templete just remain 2 function of adding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">route 3 in one website and with link  and then add cdn to templete and downloading pdf and push with git bash and lean little bit git bash  and then observe many resume builder website and what how they are doing think in that many of made up on react.js </t>
   </si>
 </sst>
 </file>
@@ -783,7 +787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC7D8B7-F388-456B-B2F2-747927B224C4}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -867,4 +871,47 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443D9402-7500-4095-98CA-0802F861F3C0}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="104.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318B5485-1AD9-45B1-8073-0A1413CEB25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12528B19-711E-47E3-9E9F-3747064C72A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>date</t>
   </si>
@@ -181,7 +181,13 @@
     <t>on second templete set css which was split and replace text area with editable div and and give them class to so  they can have earlier css too and just near to complete this templete just remain 2 function of adding</t>
   </si>
   <si>
-    <t xml:space="preserve">route 3 in one website and with link  and then add cdn to templete and downloading pdf and push with git bash and lean little bit git bash  and then observe many resume builder website and what how they are doing think in that many of made up on react.js </t>
+    <t>10.00to1.00</t>
+  </si>
+  <si>
+    <t>pfd is downloading now working on alignment  and CSS and search page breaking  and working on that and set first template little bit and texted watch what is missing in pdf photo was not coming so read library documentation of that library and then search on stack overflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">route 3 in one website and with link  and then add cdn to template and downloading pdf and push with git bash and lean little bit git bash  and then observe many resume builder website and what how they are doing think in that many of made up on react.js </t>
   </si>
 </sst>
 </file>
@@ -875,7 +881,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443D9402-7500-4095-98CA-0802F861F3C0}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -908,7 +914,15 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>48</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12528B19-711E-47E3-9E9F-3747064C72A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE66091A-9C7F-47DE-98CE-545FA05142F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>date</t>
   </si>
@@ -181,13 +181,13 @@
     <t>on second templete set css which was split and replace text area with editable div and and give them class to so  they can have earlier css too and just near to complete this templete just remain 2 function of adding</t>
   </si>
   <si>
-    <t>10.00to1.00</t>
-  </si>
-  <si>
     <t>pfd is downloading now working on alignment  and CSS and search page breaking  and working on that and set first template little bit and texted watch what is missing in pdf photo was not coming so read library documentation of that library and then search on stack overflow</t>
   </si>
   <si>
     <t xml:space="preserve">route 3 in one website and with link  and then add cdn to template and downloading pdf and push with git bash and lean little bit git bash  and then observe many resume builder website and what how they are doing think in that many of made up on react.js </t>
+  </si>
+  <si>
+    <t>so yesterday  there is problem in about when we copy paste its spilt the code so set that and I use library that only print down html so I have  to replace value of that I observe whats going on behind the sences mean I copy templete and pate with display none and download that templete and its download without any problem but now i have to set its inner html</t>
   </si>
 </sst>
 </file>
@@ -881,10 +881,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443D9402-7500-4095-98CA-0802F861F3C0}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -914,15 +914,23 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>49</v>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE66091A-9C7F-47DE-98CE-545FA05142F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC47D7CC-9299-4653-A7D8-9C8276A1C6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t>date</t>
   </si>
@@ -187,7 +187,16 @@
     <t xml:space="preserve">route 3 in one website and with link  and then add cdn to template and downloading pdf and push with git bash and lean little bit git bash  and then observe many resume builder website and what how they are doing think in that many of made up on react.js </t>
   </si>
   <si>
-    <t>so yesterday  there is problem in about when we copy paste its spilt the code so set that and I use library that only print down html so I have  to replace value of that I observe whats going on behind the sences mean I copy templete and pate with display none and download that templete and its download without any problem but now i have to set its inner html</t>
+    <t>so yesterday  there is problem in about when we copy paste its spilt the code so set that and I use library that only print down html so I have  to replace value of that I observe what's going on behind the senses mean I copy template and pate with display none and download that template and its download without any problem but now I have to set its inner html</t>
+  </si>
+  <si>
+    <t>So I come to how that input felids are not working because library read html and pdf that and if now I have only one solution that I have to make template and then I have so set inner text of html is equal to input value so and that print div but div are not possible at all place</t>
+  </si>
+  <si>
+    <t>beark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so come know about the how pdf get genrate so make a text templete where I replace a form data into that templete and then I print download that templete and that templete will be hiden its work like in backend so selected input fields for getting value of form </t>
   </si>
 </sst>
 </file>
@@ -881,10 +890,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443D9402-7500-4095-98CA-0802F861F3C0}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -925,12 +934,36 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC47D7CC-9299-4653-A7D8-9C8276A1C6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3194A71-133F-4087-B27A-7F04F59B4362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
   <si>
     <t>date</t>
   </si>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t xml:space="preserve">so come know about the how pdf get genrate so make a text templete where I replace a form data into that templete and then I print download that templete and that templete will be hiden its work like in backend so selected input fields for getting value of form </t>
+  </si>
+  <si>
+    <t>because of headache have a nap</t>
+  </si>
+  <si>
+    <t>hav a nap</t>
   </si>
 </sst>
 </file>
@@ -890,10 +896,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443D9402-7500-4095-98CA-0802F861F3C0}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -966,6 +972,22 @@
         <v>53</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3194A71-133F-4087-B27A-7F04F59B4362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B850BDF-90E4-4864-83C9-2821CA063C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
   <si>
     <t>date</t>
   </si>
@@ -193,16 +193,16 @@
     <t>So I come to how that input felids are not working because library read html and pdf that and if now I have only one solution that I have to make template and then I have so set inner text of html is equal to input value so and that print div but div are not possible at all place</t>
   </si>
   <si>
-    <t>beark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">so come know about the how pdf get genrate so make a text templete where I replace a form data into that templete and then I print download that templete and that templete will be hiden its work like in backend so selected input fields for getting value of form </t>
-  </si>
-  <si>
     <t>because of headache have a nap</t>
   </si>
   <si>
-    <t>hav a nap</t>
+    <t>have a nap</t>
+  </si>
+  <si>
+    <t>having snakes and I have to went outside for some work then I started equalling value in that first I tested a header name and print down and then make different function for different work like for changing heading make a separate function for name there is separate function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so come know about the how pdf get generate so make a text template where I replace a form data into that template and then I print download that template and that template will be hidden its work like in backend so selected input fields for getting value of form </t>
   </si>
 </sst>
 </file>
@@ -896,10 +896,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443D9402-7500-4095-98CA-0802F861F3C0}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -961,7 +961,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -969,7 +969,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -977,7 +977,7 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -985,7 +985,15 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B850BDF-90E4-4864-83C9-2821CA063C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9740915B-B419-4C58-B3F5-C316A1489086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
   <sheets>
     <sheet name="19-2-2022" sheetId="1" r:id="rId1"/>
     <sheet name="20-1-2022" sheetId="2" r:id="rId2"/>
     <sheet name="21-1-2022" sheetId="3" r:id="rId3"/>
     <sheet name="22-1-2022" sheetId="4" r:id="rId4"/>
+    <sheet name="24-1-2022" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="68">
   <si>
     <t>date</t>
   </si>
@@ -203,6 +204,42 @@
   </si>
   <si>
     <t xml:space="preserve">so come know about the how pdf get generate so make a text template where I replace a form data into that template and then I print download that template and that template will be hidden its work like in backend so selected input fields for getting value of form </t>
+  </si>
+  <si>
+    <t>12.00to1.00</t>
+  </si>
+  <si>
+    <t>1.00to2.00</t>
+  </si>
+  <si>
+    <t>6.00to7.00</t>
+  </si>
+  <si>
+    <t>so I started a resume project  with new folder new idea in that I one side of page I will be a form and another side has a templete and I visist  bunch of sites and see this pattern and observe that I I come to know that its like react project get value from form and reder to page of resume</t>
+  </si>
+  <si>
+    <t>then get one library which print my page and come to know how to use that library and its work like its read full html css and then make pdf like if I added input field so  it not considered the value of that input so I have make this plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so I stareted find a new templete in github just for test and print it and watch I can hide any thing or not and do many this like margin and started new templete to give normal style </t>
+  </si>
+  <si>
+    <t>and then make very simple form to test is value is going and it is replaced and it is replacing make sime function on that and printing that</t>
+  </si>
+  <si>
+    <t>having sleep</t>
+  </si>
+  <si>
+    <t>and then just add new experince and it is working and because of some work I have to go outside</t>
+  </si>
+  <si>
+    <t>and there is one problem that there is spacing in the pdf so read its document and find how to zoom it of fit the content but not get it that in documentation nor in stackoverflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so leave that problem for sometimes  and then add experience and I thing that that’s not goning to work but its work then visting website for observe how I can add bullets of experince and education so I come to know that there is one text area in that there is bullets </t>
+  </si>
+  <si>
+    <t>now  working on that and also finding how to fix pdf like full fit content so come to consept ppi I increase that also but can't change anything now I am think incrrease page height width and reset it again</t>
   </si>
 </sst>
 </file>
@@ -699,7 +736,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -898,7 +935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443D9402-7500-4095-98CA-0802F861F3C0}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -999,4 +1036,111 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9886F62-61F1-44CA-B51B-23247088AFE9}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="3" max="3" width="87.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9740915B-B419-4C58-B3F5-C316A1489086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A019615B-B4AE-4B38-9A07-0060468D703F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -215,31 +215,31 @@
     <t>6.00to7.00</t>
   </si>
   <si>
-    <t>so I started a resume project  with new folder new idea in that I one side of page I will be a form and another side has a templete and I visist  bunch of sites and see this pattern and observe that I I come to know that its like react project get value from form and reder to page of resume</t>
-  </si>
-  <si>
-    <t>then get one library which print my page and come to know how to use that library and its work like its read full html css and then make pdf like if I added input field so  it not considered the value of that input so I have make this plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">so I stareted find a new templete in github just for test and print it and watch I can hide any thing or not and do many this like margin and started new templete to give normal style </t>
-  </si>
-  <si>
-    <t>and then make very simple form to test is value is going and it is replaced and it is replacing make sime function on that and printing that</t>
-  </si>
-  <si>
     <t>having sleep</t>
   </si>
   <si>
-    <t>and then just add new experince and it is working and because of some work I have to go outside</t>
-  </si>
-  <si>
-    <t>and there is one problem that there is spacing in the pdf so read its document and find how to zoom it of fit the content but not get it that in documentation nor in stackoverflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">so leave that problem for sometimes  and then add experience and I thing that that’s not goning to work but its work then visting website for observe how I can add bullets of experince and education so I come to know that there is one text area in that there is bullets </t>
-  </si>
-  <si>
-    <t>now  working on that and also finding how to fix pdf like full fit content so come to consept ppi I increase that also but can't change anything now I am think incrrease page height width and reset it again</t>
+    <t>now  working on that and also finding how to fix pdf like full fit content so come to concept ppi I increase that also but can't change anything now I am think increase page height width and reset it again</t>
+  </si>
+  <si>
+    <t>so I started a resume project  with new folder new idea in that I one side of page I will be a form and another side has a template and I visits  bunch of sites and see this pattern and observe that I I come to know that its like react project get value from form and render to page of resume</t>
+  </si>
+  <si>
+    <t>then get one library which print my page and come to know how to use that library and its work like its read full html CSS and then make pdf like if I added input field so  it not considered the value of that input so I have make this plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so I started find a new template in GitHub just for test and print it and watch I can hide any thing or not and do many this like margin and started new template to give normal style </t>
+  </si>
+  <si>
+    <t>and then make very simple form to test is value is going and it is replaced and it is replacing make some function on that and printing that</t>
+  </si>
+  <si>
+    <t>and then just add new experience and it is working and because of some work I have to go outside</t>
+  </si>
+  <si>
+    <t>and there is one problem that there is spacing in the pdf so read its document and find how to zoom it of fit the content but not get it that in documentation nor in stack overflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so leave that problem for sometimes  and then add experience and I thing that that’s not going to work but its work then visiting website for observe how I can add bullets of experience and education so I come to know that there is one text area in that there is bullets </t>
   </si>
 </sst>
 </file>
@@ -1042,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9886F62-61F1-44CA-B51B-23247088AFE9}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1065,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -1081,7 +1081,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -1089,7 +1089,7 @@
         <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -1105,7 +1105,7 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -1113,7 +1113,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -1121,7 +1121,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -1129,7 +1129,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -1137,7 +1137,7 @@
         <v>58</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A019615B-B4AE-4B38-9A07-0060468D703F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE0C28F-60C8-4E77-A5F8-EDA73561A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="5" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
   <sheets>
     <sheet name="19-2-2022" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="21-1-2022" sheetId="3" r:id="rId3"/>
     <sheet name="22-1-2022" sheetId="4" r:id="rId4"/>
     <sheet name="24-1-2022" sheetId="6" r:id="rId5"/>
+    <sheet name="28-1-20202" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="69">
   <si>
     <t>date</t>
   </si>
@@ -240,6 +241,9 @@
   </si>
   <si>
     <t xml:space="preserve">so leave that problem for sometimes  and then add experience and I thing that that’s not going to work but its work then visiting website for observe how I can add bullets of experience and education so I come to know that there is one text area in that there is bullets </t>
+  </si>
+  <si>
+    <t>so yesterday my all 3 template have full functionality of adding data but there is missing functionality of edit and delete I have idea on delete but I am thinking about editing a data so first I think like react web side try a little bit that data of div transfer to the form but its quite difficult because track of data is quite hard to I think new idea I give a attribute called content editable and give border bottom to that content so it look like a form so I think that but in template how to set that much button thinking on that and I added data generate pdf to still there is some little styling that will be fixed</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9886F62-61F1-44CA-B51B-23247088AFE9}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -1143,4 +1147,40 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E2BDAA-B8B8-44BA-95FF-235E5C8E4169}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.1796875" customWidth="1"/>
+    <col min="2" max="2" width="2.36328125" customWidth="1"/>
+    <col min="3" max="3" width="115.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE0C28F-60C8-4E77-A5F8-EDA73561A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A019615B-B4AE-4B38-9A07-0060468D703F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="5" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
   <sheets>
     <sheet name="19-2-2022" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="21-1-2022" sheetId="3" r:id="rId3"/>
     <sheet name="22-1-2022" sheetId="4" r:id="rId4"/>
     <sheet name="24-1-2022" sheetId="6" r:id="rId5"/>
-    <sheet name="28-1-20202" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="68">
   <si>
     <t>date</t>
   </si>
@@ -241,9 +240,6 @@
   </si>
   <si>
     <t xml:space="preserve">so leave that problem for sometimes  and then add experience and I thing that that’s not going to work but its work then visiting website for observe how I can add bullets of experience and education so I come to know that there is one text area in that there is bullets </t>
-  </si>
-  <si>
-    <t>so yesterday my all 3 template have full functionality of adding data but there is missing functionality of edit and delete I have idea on delete but I am thinking about editing a data so first I think like react web side try a little bit that data of div transfer to the form but its quite difficult because track of data is quite hard to I think new idea I give a attribute called content editable and give border bottom to that content so it look like a form so I think that but in template how to set that much button thinking on that and I added data generate pdf to still there is some little styling that will be fixed</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9886F62-61F1-44CA-B51B-23247088AFE9}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -1147,40 +1143,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E2BDAA-B8B8-44BA-95FF-235E5C8E4169}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="22.1796875" customWidth="1"/>
-    <col min="2" max="2" width="2.36328125" customWidth="1"/>
-    <col min="3" max="3" width="115.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A019615B-B4AE-4B38-9A07-0060468D703F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCA9B4B-2AB7-4CA0-BDD5-7CBFE443FCD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="6" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
   <sheets>
     <sheet name="19-2-2022" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="21-1-2022" sheetId="3" r:id="rId3"/>
     <sheet name="22-1-2022" sheetId="4" r:id="rId4"/>
     <sheet name="24-1-2022" sheetId="6" r:id="rId5"/>
+    <sheet name="28-1-20202" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="83">
   <si>
     <t>date</t>
   </si>
@@ -240,6 +242,51 @@
   </si>
   <si>
     <t xml:space="preserve">so leave that problem for sometimes  and then add experience and I thing that that’s not going to work but its work then visiting website for observe how I can add bullets of experience and education so I come to know that there is one text area in that there is bullets </t>
+  </si>
+  <si>
+    <t>so yesterday my all 3 template have full functionality of adding data but there is missing functionality of edit and delete I have idea on delete but I am thinking about editing a data so first I think like react web side try a little bit that data of div transfer to the form but its quite difficult because track of data is quite hard to I think new idea I give a attribute called content editable and give border bottom to that content so it look like a form so I think that but in template how to set that much button thinking on that and I added data generate pdf to still there is some little styling that will be fixed</t>
+  </si>
+  <si>
+    <t>set CSS of template like margin spacing make some grid box and enter data set pdf full pages and add data is working perfectly and I tested in this hour by adding data and its take lot of time</t>
+  </si>
+  <si>
+    <t>11.00 to 11.40</t>
+  </si>
+  <si>
+    <t>started edit function and its working now removing border bottom is remain so working on that and then add awesome font log and delete button too and then lunch become ready so went there</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.40to12.30 </t>
+  </si>
+  <si>
+    <t>having lunch</t>
+  </si>
+  <si>
+    <t>12.30to3.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> went collage</t>
+  </si>
+  <si>
+    <t>3.30to4.30</t>
+  </si>
+  <si>
+    <t>so make one function that help to edit content and make them editable content and then make right button that remove under line and content editable to and then make function like this that become re use able</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30to5.30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">so use that function in  that template and set functionality like add div for parent element etc. and set some styling too then enter data for pdf and then export pdf too </t>
+  </si>
+  <si>
+    <t>5.30to6.30</t>
+  </si>
+  <si>
+    <t>and then take that pdf to phone and then make a img and send to pc again and set to landing page and then use that function of edit in second templete to and entry data and try how it's working</t>
+  </si>
+  <si>
+    <t>so in the resume project there missing function of delete so I added in 3 template and then set his position and give function and then add dummy data and delete now I am try to add full data so its will be complete</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9886F62-61F1-44CA-B51B-23247088AFE9}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -1143,4 +1190,132 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E2BDAA-B8B8-44BA-95FF-235E5C8E4169}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.1796875" customWidth="1"/>
+    <col min="2" max="2" width="2.36328125" customWidth="1"/>
+    <col min="3" max="3" width="115.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7427B462-2579-4F8D-ABFE-6BF54221779F}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.26953125" customWidth="1"/>
+    <col min="2" max="2" width="3" customWidth="1"/>
+    <col min="3" max="3" width="114.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCA9B4B-2AB7-4CA0-BDD5-7CBFE443FCD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AE8999-7596-4C83-A86A-929A3812CB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="6" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -18,8 +18,8 @@
     <sheet name="21-1-2022" sheetId="3" r:id="rId3"/>
     <sheet name="22-1-2022" sheetId="4" r:id="rId4"/>
     <sheet name="24-1-2022" sheetId="6" r:id="rId5"/>
-    <sheet name="28-1-20202" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
+    <sheet name="28-1-2022" sheetId="7" r:id="rId6"/>
+    <sheet name="29-1-2022" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="87">
   <si>
     <t>date</t>
   </si>
@@ -287,6 +287,18 @@
   </si>
   <si>
     <t>so in the resume project there missing function of delete so I added in 3 template and then set his position and give function and then add dummy data and delete now I am try to add full data so its will be complete</t>
+  </si>
+  <si>
+    <t>10.00to 11.00</t>
+  </si>
+  <si>
+    <t>so I added a data but there id form are not clearing so fix that and enter data and test that and it then again set size like overflow set give some margins and then download pad and to some setting on that to</t>
+  </si>
+  <si>
+    <t>11.00to12.20</t>
+  </si>
+  <si>
+    <t>create new repo and then  added that new resume folder but because of network issues its fail 2 times then that done and recommit file without comments I forgot comments remove so committed again and its take again time because of network</t>
   </si>
 </sst>
 </file>
@@ -1286,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7427B462-2579-4F8D-ABFE-6BF54221779F}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1315,6 +1327,22 @@
         <v>82</v>
       </c>
     </row>
+    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AE8999-7596-4C83-A86A-929A3812CB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A17A76B-E10E-49A7-BBE5-6017AC3B7F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="6" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="91">
   <si>
     <t>date</t>
   </si>
@@ -299,6 +299,18 @@
   </si>
   <si>
     <t>create new repo and then  added that new resume folder but because of network issues its fail 2 times then that done and recommit file without comments I forgot comments remove so committed again and its take again time because of network</t>
+  </si>
+  <si>
+    <t>12.20to1.00</t>
+  </si>
+  <si>
+    <t>went collage</t>
+  </si>
+  <si>
+    <t>1.00to4.00</t>
+  </si>
+  <si>
+    <t>a sent a project to my friend to watch and he said that pdf is not downloading so I am finding problem I download I am downloading then I come to know he has problem with his internet connection then think logic of not data re-entry in employee project so for that I right in book what a problem and that make own logic and do that  now working on rental website</t>
   </si>
 </sst>
 </file>
@@ -1298,10 +1310,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7427B462-2579-4F8D-ABFE-6BF54221779F}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1343,6 +1355,30 @@
         <v>86</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A17A76B-E10E-49A7-BBE5-6017AC3B7F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1400A112-6B76-41F4-9718-5A412EC19206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="6" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="7" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
   <sheets>
     <sheet name="19-2-2022" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="24-1-2022" sheetId="6" r:id="rId5"/>
     <sheet name="28-1-2022" sheetId="7" r:id="rId6"/>
     <sheet name="29-1-2022" sheetId="8" r:id="rId7"/>
+    <sheet name="31-1-2022" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="93">
   <si>
     <t>date</t>
   </si>
@@ -311,6 +312,12 @@
   </si>
   <si>
     <t>a sent a project to my friend to watch and he said that pdf is not downloading so I am finding problem I download I am downloading then I come to know he has problem with his internet connection then think logic of not data re-entry in employee project so for that I right in book what a problem and that make own logic and do that  now working on rental website</t>
+  </si>
+  <si>
+    <t>09.30to10.300</t>
+  </si>
+  <si>
+    <t>show project to ravi bhai and its not up to requirements and then in react project I set a validation on name that is not good idea and I misunderstood that I have to set id of employee but then I come to know that every employee has unique number and email so validation on it so do that and started react learning again</t>
   </si>
 </sst>
 </file>
@@ -1312,7 +1319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7427B462-2579-4F8D-ABFE-6BF54221779F}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1382,4 +1389,40 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E93380-DFA8-4CEB-AA04-B6338ADC81A5}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.90625" customWidth="1"/>
+    <col min="2" max="2" width="3.90625" customWidth="1"/>
+    <col min="3" max="3" width="120.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1400A112-6B76-41F4-9718-5A412EC19206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58194D22-A98D-445E-91DF-B44CE0159229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="7" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="95">
   <si>
     <t>date</t>
   </si>
@@ -314,10 +314,16 @@
     <t>a sent a project to my friend to watch and he said that pdf is not downloading so I am finding problem I download I am downloading then I come to know he has problem with his internet connection then think logic of not data re-entry in employee project so for that I right in book what a problem and that make own logic and do that  now working on rental website</t>
   </si>
   <si>
-    <t>09.30to10.300</t>
-  </si>
-  <si>
     <t>show project to ravi bhai and its not up to requirements and then in react project I set a validation on name that is not good idea and I misunderstood that I have to set id of employee but then I come to know that every employee has unique number and email so validation on it so do that and started react learning again</t>
+  </si>
+  <si>
+    <t>09.30to10.30</t>
+  </si>
+  <si>
+    <t>so started react learning and in that started section of react router and revision topic like switch  redirect and use Param nested routing and navlink component standard link component and what is use history hook and use history hook in push and replace method and prompted message that sure you want to leave page</t>
+  </si>
+  <si>
+    <t>10.30to12.00</t>
   </si>
 </sst>
 </file>
@@ -1393,10 +1399,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E93380-DFA8-4CEB-AA04-B6338ADC81A5}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1416,10 +1422,18 @@
     </row>
     <row r="3" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>92</v>
+    </row>
+    <row r="5" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58194D22-A98D-445E-91DF-B44CE0159229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB8DA05-2367-4A0C-92A1-865E2395380E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="7" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="96">
   <si>
     <t>date</t>
   </si>
@@ -324,6 +324,9 @@
   </si>
   <si>
     <t>10.30to12.00</t>
+  </si>
+  <si>
+    <t>12.00 to 3.15</t>
   </si>
 </sst>
 </file>
@@ -1399,10 +1402,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E93380-DFA8-4CEB-AA04-B6338ADC81A5}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1436,6 +1439,14 @@
         <v>93</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB8DA05-2367-4A0C-92A1-865E2395380E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B578D344-801F-44D5-AE65-B2FBF515BA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="7" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="8" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
   <sheets>
     <sheet name="19-2-2022" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="28-1-2022" sheetId="7" r:id="rId6"/>
     <sheet name="29-1-2022" sheetId="8" r:id="rId7"/>
     <sheet name="31-1-2022" sheetId="9" r:id="rId8"/>
+    <sheet name="01-1-2022" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="102">
   <si>
     <t>date</t>
   </si>
@@ -327,6 +328,24 @@
   </si>
   <si>
     <t>12.00 to 3.15</t>
+  </si>
+  <si>
+    <t>3.15 to 4.15</t>
+  </si>
+  <si>
+    <t>started react learning again in that I cover topic of parameter query in that there is dynamic URL according to sorting in that used logic opposite URL of button that means current sorting and then I come to know my mistakes in project and understand and write down</t>
+  </si>
+  <si>
+    <t>4.15 to 5.15</t>
+  </si>
+  <si>
+    <t>discuss problem and observe ui and asked few question and think how to do all stuff</t>
+  </si>
+  <si>
+    <t>09.to10.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so in employee data project I started from scratch because yesterday there one bug I delete all entry then also there is entry came and still store in local storage and I find a lot but I can't caught the bug and I use quite complex logic like I save new delete array to local storage and in multiple delete its not work and I observe many conditional rendering like UI is totally change so I started from new and I knew the logic </t>
   </si>
 </sst>
 </file>
@@ -1402,10 +1421,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E93380-DFA8-4CEB-AA04-B6338ADC81A5}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1447,6 +1466,58 @@
         <v>12</v>
       </c>
     </row>
+    <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34087998-466F-469F-BFCF-DBD3E1A97415}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.453125" customWidth="1"/>
+    <col min="2" max="2" width="2.90625" customWidth="1"/>
+    <col min="3" max="3" width="124" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B578D344-801F-44D5-AE65-B2FBF515BA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDA644B-8172-4EFF-8A9F-BE99CD63C964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="8" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="9" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
   <sheets>
     <sheet name="19-2-2022" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="29-1-2022" sheetId="8" r:id="rId7"/>
     <sheet name="31-1-2022" sheetId="9" r:id="rId8"/>
     <sheet name="01-1-2022" sheetId="10" r:id="rId9"/>
+    <sheet name="09-2-2022" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="104">
   <si>
     <t>date</t>
   </si>
@@ -346,6 +347,12 @@
   </si>
   <si>
     <t xml:space="preserve">so in employee data project I started from scratch because yesterday there one bug I delete all entry then also there is entry came and still store in local storage and I find a lot but I can't caught the bug and I use quite complex logic like I save new delete array to local storage and in multiple delete its not work and I observe many conditional rendering like UI is totally change so I started from new and I knew the logic </t>
+  </si>
+  <si>
+    <t>09.00to10.00</t>
+  </si>
+  <si>
+    <t>so I have function of adding shorting delete and delete function set new array in local Storage and then it's all come one update state so I made one logic that every state change save in gobalState of redux and that use in use Effect for update state of data install a redux and make action dispatch and then one error is come solving that it's about dom  I can't get is error of redux or react</t>
   </si>
 </sst>
 </file>
@@ -837,6 +844,39 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C64E0C-74A9-4B41-8746-7B92A08D5586}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.6328125" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="128.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812EA7E0-287A-49B5-9434-CAA2FE822358}">
   <dimension ref="A1:C21"/>
@@ -1491,7 +1531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34087998-466F-469F-BFCF-DBD3E1A97415}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDA644B-8172-4EFF-8A9F-BE99CD63C964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10997F2-A2DD-41AA-A97F-69E892C97DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="9" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="105">
   <si>
     <t>date</t>
   </si>
@@ -352,7 +352,10 @@
     <t>09.00to10.00</t>
   </si>
   <si>
-    <t>so I have function of adding shorting delete and delete function set new array in local Storage and then it's all come one update state so I made one logic that every state change save in gobalState of redux and that use in use Effect for update state of data install a redux and make action dispatch and then one error is come solving that it's about dom  I can't get is error of redux or react</t>
+    <t>so I have function of adding sorting delete and delete function set new array in local Storage and then it's all come one update state so I made one logic that every state change save in gobalState of redux and that use in use Effect for update state of data install a redux and make action dispatch and then one error is come solving that it's about dom  I can't get is error of redux or react</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have error last time google that can't get solution npn I install dependencies again and run code again  and that goes and then and two more component of UpdateForm and ExpandFormData component and set onclick event on that and then update state  of global state and and set update data in to local storage and make some styling in form because of overlay style get split so set that and work update function and there one bug in form of adding data so fix that to </t>
   </si>
 </sst>
 </file>
@@ -846,10 +849,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C64E0C-74A9-4B41-8746-7B92A08D5586}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -870,6 +873,14 @@
       </c>
       <c r="C3" s="2" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10997F2-A2DD-41AA-A97F-69E892C97DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A122824-A424-4221-8EEF-9DC1EED36FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="9" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="109">
   <si>
     <t>date</t>
   </si>
@@ -356,6 +356,18 @@
   </si>
   <si>
     <t xml:space="preserve">I have error last time google that can't get solution npn I install dependencies again and run code again  and that goes and then and two more component of UpdateForm and ExpandFormData component and set onclick event on that and then update state  of global state and and set update data in to local storage and make some styling in form because of overlay style get split so set that and work update function and there one bug in form of adding data so fix that to </t>
+  </si>
+  <si>
+    <t>lunch /Collage</t>
+  </si>
+  <si>
+    <t>working on pagination and project work on good but in starting of project geeting some error there is error showing null and in start of project all components run 3 times and run like loop.</t>
+  </si>
+  <si>
+    <t>There is empty array in start and then again components execute and become null and understanding how components are rendering  so there is one logic that I have three action which changes data in local storage so I make that action we action done render data from local storge and that gives loop because there one action which dispatch</t>
+  </si>
+  <si>
+    <t>With new flow I start  a logic and  I remove some  state from app.js so not re render all components and then all function action shift to table where the actually data need and get update data when action dispatch and then  add functionality of search in table component only and think some sequence</t>
   </si>
 </sst>
 </file>
@@ -849,10 +861,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C64E0C-74A9-4B41-8746-7B92A08D5586}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -881,6 +893,38 @@
       </c>
       <c r="C5" s="2" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A122824-A424-4221-8EEF-9DC1EED36FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA495696-2F31-4218-A337-1D255B059F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="9" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="110">
   <si>
     <t>date</t>
   </si>
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t>With new flow I start  a logic and  I remove some  state from app.js so not re render all components and then all function action shift to table where the actually data need and get update data when action dispatch and then  add functionality of search in table component only and think some sequence</t>
+  </si>
+  <si>
+    <t>Because of lack of time management  in starting I write report and upload code and the started working on pagination so I have logic already there so copy paste and the set state and give that splice data to children component and then I give CSS to pagination and make very simple still and work on multi-select function  first I thing to map array and give object check value then in form submit give check Value false and now I am going to make on change function</t>
   </si>
 </sst>
 </file>
@@ -861,10 +864,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C64E0C-74A9-4B41-8746-7B92A08D5586}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -925,6 +928,14 @@
       </c>
       <c r="C13" s="2" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA495696-2F31-4218-A337-1D255B059F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3015C3A-2E92-41B0-9A6A-A99F086DEA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="9" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="10" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
   <sheets>
     <sheet name="19-2-2022" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="31-1-2022" sheetId="9" r:id="rId8"/>
     <sheet name="01-1-2022" sheetId="10" r:id="rId9"/>
     <sheet name="09-2-2022" sheetId="12" r:id="rId10"/>
+    <sheet name="11-02-2022" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="117">
   <si>
     <t>date</t>
   </si>
@@ -371,6 +372,27 @@
   </si>
   <si>
     <t>Because of lack of time management  in starting I write report and upload code and the started working on pagination so I have logic already there so copy paste and the set state and give that splice data to children component and then I give CSS to pagination and make very simple still and work on multi-select function  first I thing to map array and give object check value then in form submit give check Value false and now I am going to make on change function</t>
+  </si>
+  <si>
+    <t>traget</t>
+  </si>
+  <si>
+    <t>target Achive</t>
+  </si>
+  <si>
+    <t>so there is function mutlipule delete I am wokring on that for long time cant get a logic properly and so get idea from youtube just idea not copy my logic is very different so make mutliple select done still selct all is remain</t>
+  </si>
+  <si>
+    <t>give function of select all and multiple select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function of mutliple select is done workng on delete function </t>
+  </si>
+  <si>
+    <t>target not achive</t>
+  </si>
+  <si>
+    <t>select all still  not done</t>
   </si>
 </sst>
 </file>
@@ -866,7 +888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C64E0C-74A9-4B41-8746-7B92A08D5586}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView zoomScale="56" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -936,6 +958,64 @@
       </c>
       <c r="C15" s="2" t="s">
         <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77000957-218A-40DA-9B23-E8C40537F6B9}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.6328125" customWidth="1"/>
+    <col min="2" max="2" width="3.1796875" customWidth="1"/>
+    <col min="3" max="3" width="60.54296875" customWidth="1"/>
+    <col min="4" max="4" width="4.36328125" customWidth="1"/>
+    <col min="5" max="5" width="28.81640625" customWidth="1"/>
+    <col min="6" max="6" width="28.6328125" customWidth="1"/>
+    <col min="7" max="7" width="24.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1529,7 +1609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E93380-DFA8-4CEB-AA04-B6338ADC81A5}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3015C3A-2E92-41B0-9A6A-A99F086DEA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E160830-4D3B-49F5-85E0-042FB6433E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="10" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="121">
   <si>
     <t>date</t>
   </si>
@@ -374,25 +374,37 @@
     <t>Because of lack of time management  in starting I write report and upload code and the started working on pagination so I have logic already there so copy paste and the set state and give that splice data to children component and then I give CSS to pagination and make very simple still and work on multi-select function  first I thing to map array and give object check value then in form submit give check Value false and now I am going to make on change function</t>
   </si>
   <si>
-    <t>traget</t>
-  </si>
-  <si>
-    <t>target Achive</t>
-  </si>
-  <si>
-    <t>so there is function mutlipule delete I am wokring on that for long time cant get a logic properly and so get idea from youtube just idea not copy my logic is very different so make mutliple select done still selct all is remain</t>
-  </si>
-  <si>
     <t>give function of select all and multiple select</t>
   </si>
   <si>
-    <t xml:space="preserve">function of mutliple select is done workng on delete function </t>
-  </si>
-  <si>
-    <t>target not achive</t>
-  </si>
-  <si>
     <t>select all still  not done</t>
+  </si>
+  <si>
+    <t>re render component problem</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>target Achieve</t>
+  </si>
+  <si>
+    <t>target not achieve</t>
+  </si>
+  <si>
+    <t>so there is function multiple delete I am working on that for long time cant get a logic properly and so get idea from YouTube just idea not copy my logic is very different so make multiple select done still select all is remain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function of multiple select is done working on delete function </t>
+  </si>
+  <si>
+    <t>so first I work on multiple select and delete  and skip for some time to select all and there is function of delete into nav component to I make logic that fetch data direct to nav and add logic and set new array there only and its work perfectly then work on select all and in that I add property select and true to all object</t>
+  </si>
+  <si>
+    <t>give functionality to delete all and multiple select</t>
+  </si>
+  <si>
+    <t>function of all delete and multiple delete done but component render two times</t>
   </si>
 </sst>
 </file>
@@ -967,10 +979,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77000957-218A-40DA-9B23-E8C40537F6B9}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -992,10 +1004,10 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G1" t="s">
         <v>115</v>
@@ -1006,16 +1018,33 @@
         <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E160830-4D3B-49F5-85E0-042FB6433E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0926D3-D292-4BA3-9B9A-3144EEAEFB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="10" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="126">
   <si>
     <t>date</t>
   </si>
@@ -405,6 +405,21 @@
   </si>
   <si>
     <t>function of all delete and multiple delete done but component render two times</t>
+  </si>
+  <si>
+    <t>11.00to11.40</t>
+  </si>
+  <si>
+    <t>target to solve that loop</t>
+  </si>
+  <si>
+    <t>like I come to know quite that how its going loop</t>
+  </si>
+  <si>
+    <t>not solve that loop problem now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">there re render component of like loop 3 times like we have previously not all component but there is updating in data there only </t>
   </si>
 </sst>
 </file>
@@ -979,10 +994,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77000957-218A-40DA-9B23-E8C40537F6B9}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1045,6 +1060,23 @@
       </c>
       <c r="G5" s="2" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Desktop\daily report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0926D3-D292-4BA3-9B9A-3144EEAEFB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC6FBDE-202D-4B36-B861-B46EB01FD7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="10" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="11" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
   <sheets>
     <sheet name="19-2-2022" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="01-1-2022" sheetId="10" r:id="rId9"/>
     <sheet name="09-2-2022" sheetId="12" r:id="rId10"/>
     <sheet name="11-02-2022" sheetId="13" r:id="rId11"/>
+    <sheet name="12-02-2022" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="131">
   <si>
     <t>date</t>
   </si>
@@ -420,6 +421,21 @@
   </si>
   <si>
     <t xml:space="preserve">there re render component of like loop 3 times like we have previously not all component but there is updating in data there only </t>
+  </si>
+  <si>
+    <t>Target not Achieve</t>
+  </si>
+  <si>
+    <t>so yesterday I see a bug on  select all what I am doing on that checkbox I pass a function that add property of select true and that true select all but problem is that I save that array to local storage and that array store with pagination like only 5 and that lost the data so I am finding logic to merge the array and then save to local storage but thinking logic now</t>
+  </si>
+  <si>
+    <t>solve that bug at the time set of target I don’t have idea how to do that</t>
+  </si>
+  <si>
+    <t>come to know what's problem is and how can I solve that problem</t>
+  </si>
+  <si>
+    <t>logic not get Merage array object</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77000957-218A-40DA-9B23-E8C40537F6B9}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1077,6 +1093,64 @@
       </c>
       <c r="G7" s="2" t="s">
         <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8359A13-3651-4DF6-A8CE-FDEAE2951FE4}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" activeCellId="1" sqref="G3 D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.7265625" customWidth="1"/>
+    <col min="2" max="2" width="4.1796875" customWidth="1"/>
+    <col min="3" max="3" width="65.08984375" customWidth="1"/>
+    <col min="4" max="4" width="4.36328125" customWidth="1"/>
+    <col min="5" max="5" width="26.453125" customWidth="1"/>
+    <col min="6" max="6" width="26.1796875" customWidth="1"/>
+    <col min="7" max="7" width="24.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Desktop\daily report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC6FBDE-202D-4B36-B861-B46EB01FD7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0926D3-D292-4BA3-9B9A-3144EEAEFB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="11" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="10" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
   <sheets>
     <sheet name="19-2-2022" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <sheet name="01-1-2022" sheetId="10" r:id="rId9"/>
     <sheet name="09-2-2022" sheetId="12" r:id="rId10"/>
     <sheet name="11-02-2022" sheetId="13" r:id="rId11"/>
-    <sheet name="12-02-2022" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="126">
   <si>
     <t>date</t>
   </si>
@@ -421,21 +420,6 @@
   </si>
   <si>
     <t xml:space="preserve">there re render component of like loop 3 times like we have previously not all component but there is updating in data there only </t>
-  </si>
-  <si>
-    <t>Target not Achieve</t>
-  </si>
-  <si>
-    <t>so yesterday I see a bug on  select all what I am doing on that checkbox I pass a function that add property of select true and that true select all but problem is that I save that array to local storage and that array store with pagination like only 5 and that lost the data so I am finding logic to merge the array and then save to local storage but thinking logic now</t>
-  </si>
-  <si>
-    <t>solve that bug at the time set of target I don’t have idea how to do that</t>
-  </si>
-  <si>
-    <t>come to know what's problem is and how can I solve that problem</t>
-  </si>
-  <si>
-    <t>logic not get Merage array object</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77000957-218A-40DA-9B23-E8C40537F6B9}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1093,64 +1077,6 @@
       </c>
       <c r="G7" s="2" t="s">
         <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8359A13-3651-4DF6-A8CE-FDEAE2951FE4}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" activeCellId="1" sqref="G3 D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17.7265625" customWidth="1"/>
-    <col min="2" max="2" width="4.1796875" customWidth="1"/>
-    <col min="3" max="3" width="65.08984375" customWidth="1"/>
-    <col min="4" max="4" width="4.36328125" customWidth="1"/>
-    <col min="5" max="5" width="26.453125" customWidth="1"/>
-    <col min="6" max="6" width="26.1796875" customWidth="1"/>
-    <col min="7" max="7" width="24.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Desktop\daily report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0926D3-D292-4BA3-9B9A-3144EEAEFB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6784FF-4720-42D0-AA55-BE778B6F51A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="10" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="12" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
   <sheets>
     <sheet name="19-2-2022" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,8 @@
     <sheet name="01-1-2022" sheetId="10" r:id="rId9"/>
     <sheet name="09-2-2022" sheetId="12" r:id="rId10"/>
     <sheet name="11-02-2022" sheetId="13" r:id="rId11"/>
+    <sheet name="12-02-2022" sheetId="14" r:id="rId12"/>
+    <sheet name="15-03-2022" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="140">
   <si>
     <t>date</t>
   </si>
@@ -420,6 +422,48 @@
   </si>
   <si>
     <t xml:space="preserve">there re render component of like loop 3 times like we have previously not all component but there is updating in data there only </t>
+  </si>
+  <si>
+    <t>Target not Achieve</t>
+  </si>
+  <si>
+    <t>so yesterday I see a bug on  select all what I am doing on that checkbox I pass a function that add property of select true and that true select all but problem is that I save that array to local storage and that array store with pagination like only 5 and that lost the data so I am finding logic to merge the array and then save to local storage but thinking logic now</t>
+  </si>
+  <si>
+    <t>solve that bug at the time set of target I don’t have idea how to do that</t>
+  </si>
+  <si>
+    <t>come to know what's problem is and how can I solve that problem</t>
+  </si>
+  <si>
+    <t>logic not get Merage array object</t>
+  </si>
+  <si>
+    <t>to overcome with bug and think about responsive table</t>
+  </si>
+  <si>
+    <t>I think about reposes table but I don’t know its execution is right or not and little bit solve bug but not complete</t>
+  </si>
+  <si>
+    <t>data is not lost now but selection is not working as per our need</t>
+  </si>
+  <si>
+    <t>after lot of thinking getting some error to like not getting proper logic and then skip for some time that problem and work on re-entry of employee in form js but there also I can't get success so I think first solve last problem then work on new I try map method into map method and think about filter think about set then I google in stack Overflow my problem and I get solution but that also give bug when I work with pagination because stack Overflow solution work with index and our project we work with id because index changes on thinking and working on that</t>
+  </si>
+  <si>
+    <t>9.30 to10.30</t>
+  </si>
+  <si>
+    <t>to complete routing section</t>
+  </si>
+  <si>
+    <t>almost complete routing section there is remain only routing v6</t>
+  </si>
+  <si>
+    <t>target achieve</t>
+  </si>
+  <si>
+    <t>I am started with routing pervious I do a lot stuff in it I just go through it and revise many stuff like params use rote match use history and any more and my time wasted on pushing data local machine to remote server in git hub and there is also problem in link that I tried to solve</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77000957-218A-40DA-9B23-E8C40537F6B9}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1077,6 +1121,133 @@
       </c>
       <c r="G7" s="2" t="s">
         <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8359A13-3651-4DF6-A8CE-FDEAE2951FE4}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.7265625" customWidth="1"/>
+    <col min="2" max="2" width="4.1796875" customWidth="1"/>
+    <col min="3" max="3" width="65.08984375" customWidth="1"/>
+    <col min="4" max="4" width="4.36328125" customWidth="1"/>
+    <col min="5" max="5" width="26.453125" customWidth="1"/>
+    <col min="6" max="6" width="26.1796875" customWidth="1"/>
+    <col min="7" max="7" width="24.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BC0B6D-398C-4507-B980-C93C000D370E}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.6328125" customWidth="1"/>
+    <col min="2" max="2" width="3.08984375" customWidth="1"/>
+    <col min="3" max="3" width="61" customWidth="1"/>
+    <col min="4" max="4" width="2" customWidth="1"/>
+    <col min="5" max="5" width="37.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="34.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Desktop\daily report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6784FF-4720-42D0-AA55-BE778B6F51A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D30363-63A4-47F8-A5F9-3404EB52E99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="12" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="144">
   <si>
     <t>date</t>
   </si>
@@ -464,6 +464,18 @@
   </si>
   <si>
     <t>I am started with routing pervious I do a lot stuff in it I just go through it and revise many stuff like params use rote match use history and any more and my time wasted on pushing data local machine to remote server in git hub and there is also problem in link that I tried to solve</t>
+  </si>
+  <si>
+    <t>10.30 to 11.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I started a react routing version 6 in that I download starting files and install all depensies and then I run I get an error serach error in stackoverflow that redriect me in to react router github page I read the documentation and according that I makes changes and project get run and then come to about many stuff of react routing  like there is no need of exect prop </t>
+  </si>
+  <si>
+    <t>to complete react routing v6 lecture</t>
+  </si>
+  <si>
+    <t>only 10min get completed</t>
   </si>
 </sst>
 </file>
@@ -1205,10 +1217,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BC0B6D-398C-4507-B980-C93C000D370E}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1248,6 +1260,20 @@
       </c>
       <c r="G3" s="2" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Desktop\daily report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D30363-63A4-47F8-A5F9-3404EB52E99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06A0303-C0A0-4B52-BAC0-108AE1A8F185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="12" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="147">
   <si>
     <t>date</t>
   </si>
@@ -476,6 +476,15 @@
   </si>
   <si>
     <t>only 10min get completed</t>
+  </si>
+  <si>
+    <t>11.30to12.00</t>
+  </si>
+  <si>
+    <t>in version 6 of routing learnt that now there is change to get active class of and then come to know about re direct  is now navigate come to know how its work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complete about 17 min </t>
   </si>
 </sst>
 </file>
@@ -1217,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BC0B6D-398C-4507-B980-C93C000D370E}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1274,6 +1283,20 @@
       </c>
       <c r="G5" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Desktop\daily report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06A0303-C0A0-4B52-BAC0-108AE1A8F185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EB8570-F2B0-42F1-92A4-C48B8C9A7880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="12" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="148">
   <si>
     <t>date</t>
   </si>
@@ -485,6 +485,9 @@
   </si>
   <si>
     <t xml:space="preserve">complete about 17 min </t>
+  </si>
+  <si>
+    <t>12.00to 3.00</t>
   </si>
 </sst>
 </file>
@@ -1226,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BC0B6D-398C-4507-B980-C93C000D370E}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1297,6 +1300,14 @@
       </c>
       <c r="G7" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Desktop\daily report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EB8570-F2B0-42F1-92A4-C48B8C9A7880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADE3402-3FAA-48B3-9453-0C896D175113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="12" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="151">
   <si>
     <t>date</t>
   </si>
@@ -469,9 +469,6 @@
     <t>10.30 to 11.30</t>
   </si>
   <si>
-    <t xml:space="preserve">I started a react routing version 6 in that I download starting files and install all depensies and then I run I get an error serach error in stackoverflow that redriect me in to react router github page I read the documentation and according that I makes changes and project get run and then come to about many stuff of react routing  like there is no need of exect prop </t>
-  </si>
-  <si>
     <t>to complete react routing v6 lecture</t>
   </si>
   <si>
@@ -488,6 +485,18 @@
   </si>
   <si>
     <t>12.00to 3.00</t>
+  </si>
+  <si>
+    <t>complete deploying section</t>
+  </si>
+  <si>
+    <t>complete that section too but not do practical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I started a react routing version 6 in that I download starting files and install all dispenses and then I run I get an error search error in stack overflow that redirect me in to react router GitHub page I read the documentation and according that I makes changes and project get run and then come to about many stuff of react routing  like there is no need of exact prop </t>
+  </si>
+  <si>
+    <t>move into deploying app section in that come to know about how to build app how to post and come to know about single page means and how routing works and know configuration of single page application and know that our app is static know many more stuff</t>
   </si>
 </sst>
 </file>
@@ -1229,10 +1238,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BC0B6D-398C-4507-B980-C93C000D370E}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1279,35 +1288,49 @@
         <v>140</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" t="s">
         <v>141</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>142</v>
-      </c>
-      <c r="G5" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" t="s">
         <v>145</v>
-      </c>
-      <c r="E7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Desktop\daily report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADE3402-3FAA-48B3-9453-0C896D175113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CDB84A-B55B-486D-8152-F0BEE82163E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="12" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="154">
   <si>
     <t>date</t>
   </si>
@@ -497,6 +497,15 @@
   </si>
   <si>
     <t>move into deploying app section in that come to know about how to build app how to post and come to know about single page means and how routing works and know configuration of single page application and know that our app is static know many more stuff</t>
+  </si>
+  <si>
+    <t>complete routing section</t>
+  </si>
+  <si>
+    <t>completed routing section</t>
+  </si>
+  <si>
+    <t>started routing version 6 in that  apply new syntax like navigation and under how we can do nested routing we also can use child component in route component and now with components are remove like now in version 6 there is no prompt component</t>
   </si>
 </sst>
 </file>
@@ -1238,9 +1247,9 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BC0B6D-398C-4507-B980-C93C000D370E}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1324,12 +1333,26 @@
         <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" t="s">
+        <v>151</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E13" t="s">
         <v>147</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>148</v>
       </c>
     </row>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Desktop\daily report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CDB84A-B55B-486D-8152-F0BEE82163E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BAFA6C-14EC-4D6B-AF4F-F115A71015A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="12" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="157">
   <si>
     <t>date</t>
   </si>
@@ -506,6 +506,15 @@
   </si>
   <si>
     <t>started routing version 6 in that  apply new syntax like navigation and under how we can do nested routing we also can use child component in route component and now with components are remove like now in version 6 there is no prompt component</t>
+  </si>
+  <si>
+    <t>still many things are remain and bugs also there</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finding logic of prevent  re-entry but there is a problem because I use custom hook for validation of form  and there I figure out logic </t>
+  </si>
+  <si>
+    <t>complete full employee application</t>
   </si>
 </sst>
 </file>
@@ -1247,10 +1256,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BC0B6D-398C-4507-B980-C93C000D370E}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="92" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1354,6 +1363,20 @@
       </c>
       <c r="G13" s="2" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Desktop\daily report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BAFA6C-14EC-4D6B-AF4F-F115A71015A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A539123-ED2E-42D5-9207-EA8179157A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="12" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" activeTab="13" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
   <sheets>
     <sheet name="19-2-2022" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="11-02-2022" sheetId="13" r:id="rId11"/>
     <sheet name="12-02-2022" sheetId="14" r:id="rId12"/>
     <sheet name="15-03-2022" sheetId="15" r:id="rId13"/>
+    <sheet name="16-03-2022" sheetId="17" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="161">
   <si>
     <t>date</t>
   </si>
@@ -515,6 +516,18 @@
   </si>
   <si>
     <t>complete full employee application</t>
+  </si>
+  <si>
+    <t>achive target</t>
+  </si>
+  <si>
+    <t>9.20to10.00</t>
+  </si>
+  <si>
+    <t>entry data to show project complete and wait for verify</t>
+  </si>
+  <si>
+    <t>show complete project</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BC0B6D-398C-4507-B980-C93C000D370E}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="92" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="92" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1377,6 +1390,54 @@
       </c>
       <c r="G15" s="2" t="s">
         <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054E8D4C-09D0-497B-9D28-5DA49892ACCA}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.08984375" customWidth="1"/>
+    <col min="2" max="2" width="3" customWidth="1"/>
+    <col min="3" max="3" width="66.453125" customWidth="1"/>
+    <col min="4" max="4" width="3.1796875" customWidth="1"/>
+    <col min="5" max="5" width="36.08984375" customWidth="1"/>
+    <col min="6" max="6" width="35.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Desktop\daily report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A539123-ED2E-42D5-9207-EA8179157A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E02D5C-5180-47B2-880B-96E1E4F28DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" activeTab="13" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="164">
   <si>
     <t>date</t>
   </si>
@@ -518,9 +518,6 @@
     <t>complete full employee application</t>
   </si>
   <si>
-    <t>achive target</t>
-  </si>
-  <si>
     <t>9.20to10.00</t>
   </si>
   <si>
@@ -528,6 +525,18 @@
   </si>
   <si>
     <t>show complete project</t>
+  </si>
+  <si>
+    <t>complete  how create user</t>
+  </si>
+  <si>
+    <t>still remain half video</t>
+  </si>
+  <si>
+    <t>I started authentication section in that download staring files come to know about firebase auth feature and and know about how to sent post request and know many other staff like how to go in auth page in firebase and I am trying to add GitHub repo so little time wasted there too but I can't abele to add Patrice in to remote repo</t>
+  </si>
+  <si>
+    <t>achieve target</t>
   </si>
 </sst>
 </file>
@@ -1399,10 +1408,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054E8D4C-09D0-497B-9D28-5DA49892ACCA}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1426,18 +1435,32 @@
         <v>113</v>
       </c>
       <c r="F1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" t="s">
         <v>158</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>159</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" t="s">
         <v>160</v>
+      </c>
+      <c r="F5" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Desktop\daily report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E02D5C-5180-47B2-880B-96E1E4F28DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304A934E-FFE4-4A69-B8D4-737749C1BAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" activeTab="13" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" activeTab="14" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
   <sheets>
     <sheet name="19-2-2022" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="12-02-2022" sheetId="14" r:id="rId12"/>
     <sheet name="15-03-2022" sheetId="15" r:id="rId13"/>
     <sheet name="16-03-2022" sheetId="17" r:id="rId14"/>
+    <sheet name="20-04-2022" sheetId="18" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="167">
   <si>
     <t>date</t>
   </si>
@@ -537,6 +538,15 @@
   </si>
   <si>
     <t>achieve target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">try to resolve all backend problem </t>
+  </si>
+  <si>
+    <t>so sited and think what problem I am facing and make list in book on which problem I have to work so I come to know that I get problem to fetch data again and again jo I change a logic make raw algorithm I will fetch data once and make it initial state of redux and when ever I want I will use that global state and remove and update that state also on functionality so started work on that to starting coding and making initial state fetch data</t>
+  </si>
+  <si>
+    <t>think logic  and but not coded and there also two problem object is not post with high bytes and fetching data timeout</t>
   </si>
 </sst>
 </file>
@@ -1408,10 +1418,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054E8D4C-09D0-497B-9D28-5DA49892ACCA}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1461,6 +1471,61 @@
       </c>
       <c r="F5" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C5C1E3-47AD-4A39-B8DF-3C668BC01FE5}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.54296875" customWidth="1"/>
+    <col min="2" max="2" width="45.6328125" customWidth="1"/>
+    <col min="3" max="3" width="4" customWidth="1"/>
+    <col min="4" max="4" width="42.453125" customWidth="1"/>
+    <col min="5" max="5" width="45.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Desktop\daily report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304A934E-FFE4-4A69-B8D4-737749C1BAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8252234-0094-41C4-9BF6-9A13B211D1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" activeTab="14" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="170">
   <si>
     <t>date</t>
   </si>
@@ -547,6 +547,15 @@
   </si>
   <si>
     <t>think logic  and but not coded and there also two problem object is not post with high bytes and fetching data timeout</t>
+  </si>
+  <si>
+    <t>get data in redux.js but I get data in function and I am trying to take out the that data out of function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">but can't take out object from function </t>
+  </si>
+  <si>
+    <t xml:space="preserve">make all functionality run then </t>
   </si>
 </sst>
 </file>
@@ -1485,10 +1494,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C5C1E3-47AD-4A39-B8DF-3C668BC01FE5}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1526,6 +1535,20 @@
       </c>
       <c r="E3" s="2" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Desktop\daily report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8252234-0094-41C4-9BF6-9A13B211D1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE26F069-EDA1-47F4-9AAC-94958248EF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" activeTab="14" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="173">
   <si>
     <t>date</t>
   </si>
@@ -556,6 +556,15 @@
   </si>
   <si>
     <t xml:space="preserve">make all functionality run then </t>
+  </si>
+  <si>
+    <t>got idea  and make api call successfully</t>
+  </si>
+  <si>
+    <t>so change logic to make initial state dispatch one action called all api at App.js so when website load data get fetch and its work now work on other functionality</t>
+  </si>
+  <si>
+    <t>resolve problem fine logic to get api call only once so app work smooth</t>
   </si>
 </sst>
 </file>
@@ -1494,10 +1503,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C5C1E3-47AD-4A39-B8DF-3C668BC01FE5}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1549,6 +1558,20 @@
       </c>
       <c r="E5" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Desktop\daily report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE26F069-EDA1-47F4-9AAC-94958248EF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67481C51-D4E7-49FE-B24A-16A3C702924A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" activeTab="14" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="9" activeTab="15" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
   <sheets>
     <sheet name="19-2-2022" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="15-03-2022" sheetId="15" r:id="rId13"/>
     <sheet name="16-03-2022" sheetId="17" r:id="rId14"/>
     <sheet name="20-04-2022" sheetId="18" r:id="rId15"/>
+    <sheet name="21-04-2022" sheetId="19" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="176">
   <si>
     <t>date</t>
   </si>
@@ -565,6 +566,15 @@
   </si>
   <si>
     <t>resolve problem fine logic to get api call only once so app work smooth</t>
+  </si>
+  <si>
+    <t>almost problem are founded</t>
+  </si>
+  <si>
+    <t>yesterday I completed functionality of create delete update and view particular data now move on validation I was thinking how can I validate such thinks so I started making list in book so first as I do last time validating number that number should not be repeated and then number should not be same with previous number field and think that first all data should be fetch and then I should start my application I just think on that idea still not working on that and I misunderstood on spelling check I think that you are talking about validation but letter I come to know you talking about spelling mistake in ui so work on that</t>
+  </si>
+  <si>
+    <t>I have target to find all problem first later to work on that problem and I founded problem list e.g. 1 app should only show content when all data will render  , 2. validation on number ,3 page not found on particular view page</t>
   </si>
 </sst>
 </file>
@@ -1505,7 +1515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C5C1E3-47AD-4A39-B8DF-3C668BC01FE5}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1572,6 +1582,56 @@
       </c>
       <c r="E7" t="s">
         <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C711B6-B0A7-4ADE-9CDE-F8F3F0F59FB0}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.453125" customWidth="1"/>
+    <col min="2" max="2" width="52.81640625" customWidth="1"/>
+    <col min="3" max="3" width="3.90625" customWidth="1"/>
+    <col min="4" max="4" width="37.453125" customWidth="1"/>
+    <col min="5" max="5" width="44.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Desktop\daily report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67481C51-D4E7-49FE-B24A-16A3C702924A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4318E482-36F9-4114-BDB3-C16C18986474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="9" activeTab="15" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="179">
   <si>
     <t>date</t>
   </si>
@@ -575,6 +575,15 @@
   </si>
   <si>
     <t>I have target to find all problem first later to work on that problem and I founded problem list e.g. 1 app should only show content when all data will render  , 2. validation on number ,3 page not found on particular view page</t>
+  </si>
+  <si>
+    <t>validating number will be not repeated and send different message</t>
+  </si>
+  <si>
+    <t>complete number validation</t>
+  </si>
+  <si>
+    <t>fing logic but try tu make it prefect</t>
   </si>
 </sst>
 </file>
@@ -1591,10 +1600,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C711B6-B0A7-4ADE-9CDE-F8F3F0F59FB0}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1632,6 +1641,20 @@
       </c>
       <c r="E3" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Desktop\daily report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4318E482-36F9-4114-BDB3-C16C18986474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51B8BC1-793A-4138-A720-16A3DCF2DAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="9" activeTab="15" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="183">
   <si>
     <t>date</t>
   </si>
@@ -583,7 +583,19 @@
     <t>complete number validation</t>
   </si>
   <si>
-    <t>fing logic but try tu make it prefect</t>
+    <t>find logic but try to make it prefect</t>
+  </si>
+  <si>
+    <t>8.00 to 9.300 pm</t>
+  </si>
+  <si>
+    <t>complete code in number validation</t>
+  </si>
+  <si>
+    <t>complete number stuff validation</t>
+  </si>
+  <si>
+    <t>complete validation prevent to double submit and find logic to number validation like if number is 10 digit then only check for repetition and is there is id then logic is changed and give error message according validation live number repeated or less than or more than 10 digit</t>
   </si>
 </sst>
 </file>
@@ -1600,10 +1612,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C711B6-B0A7-4ADE-9CDE-F8F3F0F59FB0}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1655,6 +1667,20 @@
       </c>
       <c r="E5" t="s">
         <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Desktop\daily report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51B8BC1-793A-4138-A720-16A3DCF2DAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16279D65-C95F-4780-816D-4600EF563FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="9" activeTab="15" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="11" activeTab="16" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
   <sheets>
     <sheet name="19-2-2022" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="16-03-2022" sheetId="17" r:id="rId14"/>
     <sheet name="20-04-2022" sheetId="18" r:id="rId15"/>
     <sheet name="21-04-2022" sheetId="19" r:id="rId16"/>
+    <sheet name="02-05-2022" sheetId="20" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="186">
   <si>
     <t>date</t>
   </si>
@@ -596,6 +597,15 @@
   </si>
   <si>
     <t>complete validation prevent to double submit and find logic to number validation like if number is 10 digit then only check for repetition and is there is id then logic is changed and give error message according validation live number repeated or less than or more than 10 digit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find logic of authentication </t>
+  </si>
+  <si>
+    <t>think logic of authentication in authentication its return one token and make cloud file on that token</t>
+  </si>
+  <si>
+    <t>have Some life lesson and then started work on functionality of authentication and started making ui of login page</t>
   </si>
 </sst>
 </file>
@@ -1614,7 +1624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C711B6-B0A7-4ADE-9CDE-F8F3F0F59FB0}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1681,6 +1691,56 @@
       </c>
       <c r="E7" t="s">
         <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD60DD92-D3B8-4587-A312-152B2443C234}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.6328125" customWidth="1"/>
+    <col min="2" max="2" width="52.36328125" customWidth="1"/>
+    <col min="3" max="3" width="2.453125" customWidth="1"/>
+    <col min="4" max="4" width="43.54296875" customWidth="1"/>
+    <col min="5" max="5" width="43.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Desktop\daily report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16279D65-C95F-4780-816D-4600EF563FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB337706-C99B-4C4E-BFD5-F70F8A6C93C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="11" activeTab="16" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="189">
   <si>
     <t>date</t>
   </si>
@@ -606,6 +606,15 @@
   </si>
   <si>
     <t>have Some life lesson and then started work on functionality of authentication and started making ui of login page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I know about firebase authentication but revise that and create the user and I am able to creating user but I am not getting token but then I read documentation and then I get user data not working on logic  </t>
+  </si>
+  <si>
+    <t>creating user but still remain logic not working on that</t>
+  </si>
+  <si>
+    <t>create user and make token global state</t>
   </si>
 </sst>
 </file>
@@ -1700,10 +1709,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD60DD92-D3B8-4587-A312-152B2443C234}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1741,6 +1750,20 @@
       </c>
       <c r="E3" s="2" t="s">
         <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Desktop\daily report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB337706-C99B-4C4E-BFD5-F70F8A6C93C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91864A46-404A-45A7-A684-E0A1D7C786D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="11" activeTab="16" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="193">
   <si>
     <t>date</t>
   </si>
@@ -615,6 +615,18 @@
   </si>
   <si>
     <t>create user and make token global state</t>
+  </si>
+  <si>
+    <t>11.00TO12.00</t>
+  </si>
+  <si>
+    <t>now working on conditional render if login or sign up token is there then and only some content will show working on that and now able to add doc according to users and testing that</t>
+  </si>
+  <si>
+    <t>create user and show its data only</t>
+  </si>
+  <si>
+    <t>conditional rendering according user</t>
   </si>
 </sst>
 </file>
@@ -1709,10 +1721,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD60DD92-D3B8-4587-A312-152B2443C234}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1764,6 +1776,20 @@
       </c>
       <c r="E5" s="2" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Desktop\daily report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91864A46-404A-45A7-A684-E0A1D7C786D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0001B06B-DAE7-4FB4-ACC6-1B2562B4B8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="11" activeTab="16" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="199">
   <si>
     <t>date</t>
   </si>
@@ -627,6 +627,24 @@
   </si>
   <si>
     <t>conditional rendering according user</t>
+  </si>
+  <si>
+    <t>12.00to4.30</t>
+  </si>
+  <si>
+    <t>went to collage</t>
+  </si>
+  <si>
+    <t>4.30to5.30</t>
+  </si>
+  <si>
+    <t>only made ui of form</t>
+  </si>
+  <si>
+    <t>validation and error handler like email exits or incorrect password and make ui of form</t>
+  </si>
+  <si>
+    <t>make ui of form of login page and do some condensational rendering for sign up page and login page and work accordingly and also give CSS to nav  and take some idea from google for ui</t>
   </si>
 </sst>
 </file>
@@ -1721,10 +1739,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD60DD92-D3B8-4587-A312-152B2443C234}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1790,6 +1808,28 @@
       </c>
       <c r="E7" t="s">
         <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Desktop\daily report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0001B06B-DAE7-4FB4-ACC6-1B2562B4B8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F14F57-7C22-4DCD-B532-2BE35A450D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="11" activeTab="16" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="202">
   <si>
     <t>date</t>
   </si>
@@ -645,6 +645,15 @@
   </si>
   <si>
     <t>make ui of form of login page and do some condensational rendering for sign up page and login page and work accordingly and also give CSS to nav  and take some idea from google for ui</t>
+  </si>
+  <si>
+    <t>only validation is done testing is remaining</t>
+  </si>
+  <si>
+    <t>and then work on error handle show error accordingly like email already use password is used or other error  and validate the input field like if input is empty then return auth function and show message like invalid input and then  I got error from firebase try to solve that but that error comes from firebase only and error called auth/internal error</t>
+  </si>
+  <si>
+    <t>validate the auth and show data accordingly</t>
   </si>
 </sst>
 </file>
@@ -1739,10 +1748,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD60DD92-D3B8-4587-A312-152B2443C234}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1830,6 +1839,20 @@
       </c>
       <c r="E11" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Desktop\daily report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F14F57-7C22-4DCD-B532-2BE35A450D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF777EE-BB9A-4CA4-93CC-64CDAFCA8EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="11" activeTab="16" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="11" activeTab="17" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
   <sheets>
     <sheet name="19-2-2022" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="20-04-2022" sheetId="18" r:id="rId15"/>
     <sheet name="21-04-2022" sheetId="19" r:id="rId16"/>
     <sheet name="02-05-2022" sheetId="20" r:id="rId17"/>
+    <sheet name="03-05-2022" sheetId="21" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="206">
   <si>
     <t>date</t>
   </si>
@@ -654,6 +655,18 @@
   </si>
   <si>
     <t>validate the auth and show data accordingly</t>
+  </si>
+  <si>
+    <t>9.30 to110.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find logic for refresh bug and copy paste link bug </t>
+  </si>
+  <si>
+    <t>almost authentication is complete and working all is good now I have to store id token into local storge</t>
+  </si>
+  <si>
+    <t>work on yesterday error on auth internal error there is error on requesting for login and sign solve that error and make account and logic and data are showing and then give function of log out and navigate the page to login now there is only problem is refreshing page and copy link navigate to direct home page</t>
   </si>
 </sst>
 </file>
@@ -1750,7 +1763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD60DD92-D3B8-4587-A312-152B2443C234}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1853,6 +1866,55 @@
       </c>
       <c r="E13" t="s">
         <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96C678C-73C9-43FB-B612-17317D2A05A4}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.36328125" customWidth="1"/>
+    <col min="2" max="2" width="44.7265625" customWidth="1"/>
+    <col min="3" max="3" width="43.7265625" customWidth="1"/>
+    <col min="4" max="4" width="41.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Desktop\daily report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF777EE-BB9A-4CA4-93CC-64CDAFCA8EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8224FA-E657-459B-931A-69289CBB7E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="11" activeTab="17" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="209">
   <si>
     <t>date</t>
   </si>
@@ -657,9 +657,6 @@
     <t>validate the auth and show data accordingly</t>
   </si>
   <si>
-    <t>9.30 to110.30</t>
-  </si>
-  <si>
     <t xml:space="preserve">find logic for refresh bug and copy paste link bug </t>
   </si>
   <si>
@@ -667,6 +664,18 @@
   </si>
   <si>
     <t>work on yesterday error on auth internal error there is error on requesting for login and sign solve that error and make account and logic and data are showing and then give function of log out and navigate the page to login now there is only problem is refreshing page and copy link navigate to direct home page</t>
+  </si>
+  <si>
+    <t>10.30to11.30</t>
+  </si>
+  <si>
+    <t>to complete project</t>
+  </si>
+  <si>
+    <t>completed project</t>
+  </si>
+  <si>
+    <t>complete the project fix some remaining bug like refreshing page or copy paste link and then test the code by adding data and edit that delete that create again and then started again react js course and in that work on next js I watch later but for revision I watching again</t>
   </si>
 </sst>
 </file>
@@ -1875,10 +1884,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96C678C-73C9-43FB-B612-17317D2A05A4}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1905,16 +1914,30 @@
     </row>
     <row r="3" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" t="s">
         <v>202</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>205</v>
       </c>
-      <c r="C3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>204</v>
+      <c r="B5" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Desktop\daily report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8224FA-E657-459B-931A-69289CBB7E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C518D278-32D9-4812-9DB8-09B5B8F998EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="11" activeTab="17" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="213">
   <si>
     <t>date</t>
   </si>
@@ -676,6 +676,18 @@
   </si>
   <si>
     <t>complete the project fix some remaining bug like refreshing page or copy paste link and then test the code by adding data and edit that delete that create again and then started again react js course and in that work on next js I watch later but for revision I watching again</t>
+  </si>
+  <si>
+    <t>11.30to4.00</t>
+  </si>
+  <si>
+    <t>complete course as much as possible</t>
+  </si>
+  <si>
+    <t>complete almost 6 lecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">continue next js section in that come to know about search engine optimization and function like get static props and server side fetching data every particular time and code down with course and also come to know about use Router function it has query and methods like push to push page in </t>
   </si>
 </sst>
 </file>
@@ -1884,7 +1896,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96C678C-73C9-43FB-B612-17317D2A05A4}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -1938,6 +1950,28 @@
       </c>
       <c r="D5" t="s">
         <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Desktop\daily report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C518D278-32D9-4812-9DB8-09B5B8F998EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002571A0-2012-4EE5-82B5-AE06AA9E8890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="11" activeTab="17" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="216">
   <si>
     <t>date</t>
   </si>
@@ -688,6 +688,15 @@
   </si>
   <si>
     <t xml:space="preserve">continue next js section in that come to know about search engine optimization and function like get static props and server side fetching data every particular time and code down with course and also come to know about use Router function it has query and methods like push to push page in </t>
+  </si>
+  <si>
+    <t>work with get static props in to dynamic route and then come to know about function called getStaticPath and know its return object and fallback property and then started backend of the project and create account in Mogo dB and make a free cluster as shown into video and create user to read write user and connect with application and add ap address of mine local machine and come to know about very important feature of next js api routes</t>
+  </si>
+  <si>
+    <t>come to know about backend like Mogo db</t>
+  </si>
+  <si>
+    <t>complete course as much possible and give your best</t>
   </si>
 </sst>
 </file>
@@ -1896,7 +1905,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96C678C-73C9-43FB-B612-17317D2A05A4}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -1972,6 +1981,20 @@
       </c>
       <c r="D9" t="s">
         <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Desktop\daily report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002571A0-2012-4EE5-82B5-AE06AA9E8890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5160AFC-B9DE-4A65-87CF-BA7BD75B12CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="11" activeTab="17" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="12" activeTab="18" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
   <sheets>
     <sheet name="19-2-2022" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="21-04-2022" sheetId="19" r:id="rId16"/>
     <sheet name="02-05-2022" sheetId="20" r:id="rId17"/>
     <sheet name="03-05-2022" sheetId="21" r:id="rId18"/>
+    <sheet name="04-05-2022" sheetId="22" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="219">
   <si>
     <t>date</t>
   </si>
@@ -697,6 +698,15 @@
   </si>
   <si>
     <t>complete course as much possible and give your best</t>
+  </si>
+  <si>
+    <t>completed email verification</t>
+  </si>
+  <si>
+    <t>complete authentication with email verification</t>
+  </si>
+  <si>
+    <t>work on authentication at home I read a documentation in that I come to know about authentication profile as we discuss yesterday and then work on this and face many error solve that  and first make account and then sent email verification and then show content of that and then navigate to login page and then login on that</t>
   </si>
 </sst>
 </file>
@@ -1907,7 +1917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96C678C-73C9-43FB-B612-17317D2A05A4}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1995,6 +2005,55 @@
       </c>
       <c r="D11" t="s">
         <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C07D14F-FD47-444F-8509-FEF18C45849E}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="43.453125" customWidth="1"/>
+    <col min="3" max="3" width="39.08984375" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Desktop\daily report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5160AFC-B9DE-4A65-87CF-BA7BD75B12CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1607D6-76BF-4EE8-88F0-E8B17D1641E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="12" activeTab="18" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="223">
   <si>
     <t>date</t>
   </si>
@@ -707,6 +707,18 @@
   </si>
   <si>
     <t>work on authentication at home I read a documentation in that I come to know about authentication profile as we discuss yesterday and then work on this and face many error solve that  and first make account and then sent email verification and then show content of that and then navigate to login page and then login on that</t>
+  </si>
+  <si>
+    <t>1.30to11.30</t>
+  </si>
+  <si>
+    <t>complete validation of data from and find bug and then I realize that this logic is quite complex I think on that and then I get an idea if any state is empty string then return and set validation of that state to false so that show error message and its working now I can prevent from submitting and then code down and then check many time by entering data</t>
+  </si>
+  <si>
+    <t>complete validation of from and find bug on that</t>
+  </si>
+  <si>
+    <t>complete validation of data entry form and still remain login and sign in form</t>
   </si>
 </sst>
 </file>
@@ -2014,10 +2026,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C07D14F-FD47-444F-8509-FEF18C45849E}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2049,11 +2061,25 @@
       <c r="B2" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>217</v>
       </c>
       <c r="D2" t="s">
         <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Desktop\daily report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1607D6-76BF-4EE8-88F0-E8B17D1641E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F76254-EB3D-41FD-A844-2DF3E0E83E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="12" activeTab="18" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="225">
   <si>
     <t>date</t>
   </si>
@@ -709,9 +709,6 @@
     <t>work on authentication at home I read a documentation in that I come to know about authentication profile as we discuss yesterday and then work on this and face many error solve that  and first make account and then sent email verification and then show content of that and then navigate to login page and then login on that</t>
   </si>
   <si>
-    <t>1.30to11.30</t>
-  </si>
-  <si>
     <t>complete validation of data from and find bug and then I realize that this logic is quite complex I think on that and then I get an idea if any state is empty string then return and set validation of that state to false so that show error message and its working now I can prevent from submitting and then code down and then check many time by entering data</t>
   </si>
   <si>
@@ -719,6 +716,15 @@
   </si>
   <si>
     <t>complete validation of data entry form and still remain login and sign in form</t>
+  </si>
+  <si>
+    <t>so first I google test case of login page read some  blog and think on that then I add query called required and then think manually validation and then prevent from submitting if string is empty string</t>
+  </si>
+  <si>
+    <t>think validation logic and find test case of login page validation and think on custom error</t>
+  </si>
+  <si>
+    <t>make some custom error and then explore the test case</t>
   </si>
 </sst>
 </file>
@@ -2026,10 +2032,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C07D14F-FD47-444F-8509-FEF18C45849E}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2070,16 +2076,30 @@
     </row>
     <row r="4" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D4" s="2" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>222</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Desktop\daily report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F76254-EB3D-41FD-A844-2DF3E0E83E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962D020B-2C98-4D7B-B9E8-A9D578694136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="12" activeTab="18" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="14" activeTab="19" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
   <sheets>
     <sheet name="19-2-2022" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="02-05-2022" sheetId="20" r:id="rId17"/>
     <sheet name="03-05-2022" sheetId="21" r:id="rId18"/>
     <sheet name="04-05-2022" sheetId="22" r:id="rId19"/>
+    <sheet name="05-052022" sheetId="24" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="229">
   <si>
     <t>date</t>
   </si>
@@ -725,6 +726,18 @@
   </si>
   <si>
     <t>make some custom error and then explore the test case</t>
+  </si>
+  <si>
+    <t>9.15to10.15</t>
+  </si>
+  <si>
+    <t>so working with automatic sign function in that I research on stackoweflow and read documentation and I think almost there  I am redirecting to my website now on click I will be sign in that functionality is remain and work on that and watching YouTube videos and I get solution there but that is quite different</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find logic how can I do login </t>
+  </si>
+  <si>
+    <t>find one video on youtube</t>
   </si>
 </sst>
 </file>
@@ -2034,7 +2047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C07D14F-FD47-444F-8509-FEF18C45849E}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2214,6 +2227,56 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B56A1A7-6F1A-4E72-BC32-9473A3E0DEF5}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="51.54296875" customWidth="1"/>
+    <col min="3" max="3" width="4.453125" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" customWidth="1"/>
+    <col min="5" max="5" width="43.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Desktop\daily report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962D020B-2C98-4D7B-B9E8-A9D578694136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A2EB64-2D72-4BCD-B64A-E7DC641C01BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="14" activeTab="19" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="232">
   <si>
     <t>date</t>
   </si>
@@ -738,6 +738,15 @@
   </si>
   <si>
     <t>find one video on youtube</t>
+  </si>
+  <si>
+    <t>10.15to11.30</t>
+  </si>
+  <si>
+    <t>first I come on office then I saw your message and come home again and then and working on redrict to login page and then there is function that sign with link now working on that</t>
+  </si>
+  <si>
+    <t>still not working sign in</t>
   </si>
 </sst>
 </file>
@@ -2232,10 +2241,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B56A1A7-6F1A-4E72-BC32-9473A3E0DEF5}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2273,6 +2282,21 @@
       </c>
       <c r="E3" t="s">
         <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E5" t="e">
+        <f>--B5</f>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Desktop\daily report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A2EB64-2D72-4BCD-B64A-E7DC641C01BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E45DD7-AF85-4D2C-8B01-EF5BD4AC739A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="14" activeTab="19" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="234">
   <si>
     <t>date</t>
   </si>
@@ -747,6 +747,12 @@
   </si>
   <si>
     <t>still not working sign in</t>
+  </si>
+  <si>
+    <t>11.30to12.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">try a lot but not getting object of user I can redirect to login page not able to log in try many videos from google and then code down to but  not working there is error called auth-operation is not allowed try to solve that </t>
   </si>
 </sst>
 </file>
@@ -2241,10 +2247,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B56A1A7-6F1A-4E72-BC32-9473A3E0DEF5}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2297,6 +2303,14 @@
       <c r="E5" t="e">
         <f>--B5</f>
         <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Desktop\daily report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E45DD7-AF85-4D2C-8B01-EF5BD4AC739A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2221773E-6772-4174-9987-91FABA299A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="14" activeTab="19" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="14" activeTab="20" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
   <sheets>
     <sheet name="19-2-2022" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,8 @@
     <sheet name="02-05-2022" sheetId="20" r:id="rId17"/>
     <sheet name="03-05-2022" sheetId="21" r:id="rId18"/>
     <sheet name="04-05-2022" sheetId="22" r:id="rId19"/>
-    <sheet name="05-052022" sheetId="24" r:id="rId20"/>
+    <sheet name="05-05-2022" sheetId="24" r:id="rId20"/>
+    <sheet name="06-05-2022" sheetId="25" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="237">
   <si>
     <t>date</t>
   </si>
@@ -753,6 +754,15 @@
   </si>
   <si>
     <t xml:space="preserve">try a lot but not getting object of user I can redirect to login page not able to log in try many videos from google and then code down to but  not working there is error called auth-operation is not allowed try to solve that </t>
+  </si>
+  <si>
+    <t>I set project from home I just remain to test so I started testing and then I save to id into cookies instead of local storage they give error so use logic and logical operator solve that error and then check all functionality again like add update and delete log out log in create account</t>
+  </si>
+  <si>
+    <t>complete this full project</t>
+  </si>
+  <si>
+    <t>completed full project</t>
   </si>
 </sst>
 </file>
@@ -2249,7 +2259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B56A1A7-6F1A-4E72-BC32-9473A3E0DEF5}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -2311,6 +2321,55 @@
       </c>
       <c r="B7" s="2" t="s">
         <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D3B7BF-06FA-4AAA-9565-9C222D51B5CA}">
+  <dimension ref="A4:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+    <col min="2" max="2" width="55.08984375" customWidth="1"/>
+    <col min="3" max="3" width="46.81640625" customWidth="1"/>
+    <col min="4" max="4" width="43.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/Daily report.xlsx
+++ b/Daily report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu ramani\Desktop\daily report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2221773E-6772-4174-9987-91FABA299A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424E0181-FAE4-4AD1-B410-60F77CCFB479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="14" activeTab="20" xr2:uid="{262015A9-4BDF-42AB-BBBA-BE4FD8E8A3C3}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="241">
   <si>
     <t>date</t>
   </si>
@@ -763,6 +763,18 @@
   </si>
   <si>
     <t>completed full project</t>
+  </si>
+  <si>
+    <t>10.20to11.00</t>
+  </si>
+  <si>
+    <t>so started again next js course in posting data of form in mongo db but there is error which I am not getting I compared code with video also but not solve and that I watch course Q&amp;A also but not getting proper solution and still stuck on that stuff</t>
+  </si>
+  <si>
+    <t>not solved single error</t>
+  </si>
+  <si>
+    <t>complete course as mush as possible</t>
   </si>
 </sst>
 </file>
@@ -2330,10 +2342,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D3B7BF-06FA-4AAA-9565-9C222D51B5CA}">
-  <dimension ref="A4:D6"/>
+  <dimension ref="A4:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2370,6 +2382,20 @@
       </c>
       <c r="D6" t="s">
         <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
